--- a/Projects/tbh-report-catalog/src/Tbh.ReportCatalog/bin/Debug/net8.0/PlantPerformance_20250101_20250201.xlsx
+++ b/Projects/tbh-report-catalog/src/Tbh.ReportCatalog/bin/Debug/net8.0/PlantPerformance_20250101_20250201.xlsx
@@ -17,7 +17,7 @@
     <t>Plant Performance Report</t>
   </si>
   <si>
-    <t>Generated: 2026-02-16 14:26</t>
+    <t>Generated: 2026-02-16 18:00</t>
   </si>
   <si>
     <t>Data Source: Command Alkon</t>
